--- a/osiris_ETL/fieldnames.xlsx
+++ b/osiris_ETL/fieldnames.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanc/Dropbox/ac.Work/Research/economics_research/osiris_ETL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A1630DB2-CE15-BA46-A262-DE497B6E3C75}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12BF6AD-F2EE-7942-A56D-8AB127C4571A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14400"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fieldnames" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="232">
   <si>
     <t>Field Name</t>
   </si>
@@ -721,7 +721,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1260,11 +1260,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B233" totalsRowShown="0">
-  <autoFilter ref="A1:B233"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:B233" totalsRowShown="0">
+  <autoFilter ref="A1:B233" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Field Name"/>
-    <tableColumn id="2" name="Select?"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Field Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Select?"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1566,16 +1566,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B233"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="79" customWidth="1"/>
+    <col min="1" max="1" width="93" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -1598,36 +1598,57 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -1641,51 +1662,81 @@
       <c r="A11" t="s">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
+      <c r="B13" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
+      <c r="B14" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
+      <c r="B15" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
+      <c r="B16" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
+      <c r="B17" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
+      <c r="B18" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
+      <c r="B19" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
+      <c r="B20" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -1830,82 +1881,85 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>63</v>
       </c>

--- a/osiris_ETL/fieldnames.xlsx
+++ b/osiris_ETL/fieldnames.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanc/Dropbox/ac.Work/Research/economics_research/osiris_ETL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12BF6AD-F2EE-7942-A56D-8AB127C4571A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FB2A34-2E5B-2B49-8A4C-F7578F761365}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="232">
   <si>
     <t>Field Name</t>
   </si>
@@ -1569,8 +1569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B233"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B70" sqref="B69:B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1678,9 +1678,6 @@
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>231</v>
-      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1694,49 +1691,31 @@
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>231</v>
-      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>231</v>
-      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>231</v>
-      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>231</v>
-      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>231</v>
-      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>231</v>
-      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -1948,6 +1927,9 @@
       <c r="A61" t="s">
         <v>60</v>
       </c>
+      <c r="B61" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
@@ -1958,88 +1940,100 @@
       <c r="A63" t="s">
         <v>62</v>
       </c>
+      <c r="B63" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>79</v>
       </c>
